--- a/code/annotated_graph_data.xlsx
+++ b/code/annotated_graph_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell4\Desktop\Capstone project\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell4\Desktop\Capstone project\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="386">
   <si>
     <t>Sno.</t>
   </si>
@@ -547,13 +547,643 @@
   </si>
   <si>
     <t>Cipro/D0</t>
+  </si>
+  <si>
+    <t>US10179154.pdf</t>
+  </si>
+  <si>
+    <t>Fig. 2A</t>
+  </si>
+  <si>
+    <t>Lassa-VSV</t>
+  </si>
+  <si>
+    <t>Ebola-VSV</t>
+  </si>
+  <si>
+    <t>VSV-M51</t>
+  </si>
+  <si>
+    <t>VSV-1'GFP</t>
+  </si>
+  <si>
+    <t>Fig. 2B</t>
+  </si>
+  <si>
+    <t>VSV-LASV-G</t>
+  </si>
+  <si>
+    <t>VSV-IFN</t>
+  </si>
+  <si>
+    <t>Fig. 3B</t>
+  </si>
+  <si>
+    <t>VSV-wtG</t>
+  </si>
+  <si>
+    <t>US10183069.pdf</t>
+  </si>
+  <si>
+    <t>AdNCin-2</t>
+  </si>
+  <si>
+    <t>Fig. 3A</t>
+  </si>
+  <si>
+    <t>AdE*/im/-2</t>
+  </si>
+  <si>
+    <t>Fig. 4A</t>
+  </si>
+  <si>
+    <t>Fig. 4B</t>
+  </si>
+  <si>
+    <t>Placeto Control</t>
+  </si>
+  <si>
+    <t>HAE7 HI=5</t>
+  </si>
+  <si>
+    <t>HAE10 HI=18</t>
+  </si>
+  <si>
+    <t>HA1E10 HI=5</t>
+  </si>
+  <si>
+    <t>Control HI=5</t>
+  </si>
+  <si>
+    <t>HAE10 HI=22</t>
+  </si>
+  <si>
+    <t>US10196435.pdf</t>
+  </si>
+  <si>
+    <t>Fig. 1A</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>OX40L</t>
+  </si>
+  <si>
+    <t>Vacc+OX40L</t>
+  </si>
+  <si>
+    <t>Palliative Treatment</t>
+  </si>
+  <si>
+    <t>TMZ</t>
+  </si>
+  <si>
+    <t>Vax+TMZ</t>
+  </si>
+  <si>
+    <t>cOX40L+Vax</t>
+  </si>
+  <si>
+    <t>cOX40L+TMZ</t>
+  </si>
+  <si>
+    <t>cOX40L+Vax+TMZ</t>
+  </si>
+  <si>
+    <t>US10202388.pdf</t>
+  </si>
+  <si>
+    <t>Group-1 Vehicle</t>
+  </si>
+  <si>
+    <t>Group-2 Compound 23A-3</t>
+  </si>
+  <si>
+    <t>US10202605.pdf</t>
+  </si>
+  <si>
+    <t>Fig. 5d</t>
+  </si>
+  <si>
+    <t>MTDH</t>
+  </si>
+  <si>
+    <t>Fig. 5g</t>
+  </si>
+  <si>
+    <t>KD-1</t>
+  </si>
+  <si>
+    <t>Fig. 7b</t>
+  </si>
+  <si>
+    <t>KD1</t>
+  </si>
+  <si>
+    <t>Fig. 8A</t>
+  </si>
+  <si>
+    <t>Fig. 8C</t>
+  </si>
+  <si>
+    <t>Fig. 9E</t>
+  </si>
+  <si>
+    <t>Control Vehicle</t>
+  </si>
+  <si>
+    <t>Control Paclitaxel</t>
+  </si>
+  <si>
+    <t>KD1 Vehicle</t>
+  </si>
+  <si>
+    <t>KD1 Paclitaxel</t>
+  </si>
+  <si>
+    <t>Control Doxorubicin</t>
+  </si>
+  <si>
+    <t>KD1 Doxorubicin</t>
+  </si>
+  <si>
+    <t>US10227413.pdf</t>
+  </si>
+  <si>
+    <t>MAB15</t>
+  </si>
+  <si>
+    <t>Control lgG</t>
+  </si>
+  <si>
+    <t>MAB7</t>
+  </si>
+  <si>
+    <t>MAB3</t>
+  </si>
+  <si>
+    <t>MAB4</t>
+  </si>
+  <si>
+    <t>PD-1</t>
+  </si>
+  <si>
+    <t>SEC10</t>
+  </si>
+  <si>
+    <t>MAB5</t>
+  </si>
+  <si>
+    <t>MAB13</t>
+  </si>
+  <si>
+    <t>MAB2</t>
+  </si>
+  <si>
+    <t>MAB14</t>
+  </si>
+  <si>
+    <t>MAB12</t>
+  </si>
+  <si>
+    <t>Fig. 1B</t>
+  </si>
+  <si>
+    <t>MAB15+PD-1</t>
+  </si>
+  <si>
+    <t>MAB7+PD-1</t>
+  </si>
+  <si>
+    <t>MAB3+PD-1</t>
+  </si>
+  <si>
+    <t>MAB4+PD-1</t>
+  </si>
+  <si>
+    <t>SEC10+PD-1</t>
+  </si>
+  <si>
+    <t>MAB13+PD-1</t>
+  </si>
+  <si>
+    <t>MAB14+PD-1</t>
+  </si>
+  <si>
+    <t>MAB2+PD-1</t>
+  </si>
+  <si>
+    <t>MAB5+PD-1</t>
+  </si>
+  <si>
+    <t>MAB12+PD-1</t>
+  </si>
+  <si>
+    <t>Fig. 1C</t>
+  </si>
+  <si>
+    <t>Control lgG2b</t>
+  </si>
+  <si>
+    <t>mMAB12</t>
+  </si>
+  <si>
+    <t>mMAB12+PD1</t>
+  </si>
+  <si>
+    <t>Contorl lgG</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>MAB4+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB15+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB7+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB3+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB5+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB2+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB12+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB14+PD-L1</t>
+  </si>
+  <si>
+    <t>SEC10+PD-L1</t>
+  </si>
+  <si>
+    <t>MAB13+PD-L1</t>
+  </si>
+  <si>
+    <t>Fig. 2C</t>
+  </si>
+  <si>
+    <t>mMAB12+PD-L1</t>
+  </si>
+  <si>
+    <t>US10232002.pdf</t>
+  </si>
+  <si>
+    <t>HSV-1 34.5 68-87R</t>
+  </si>
+  <si>
+    <t>HSV-1 34.5 68-87</t>
+  </si>
+  <si>
+    <t>US10232053.pdf</t>
+  </si>
+  <si>
+    <t>Fig. 6B</t>
+  </si>
+  <si>
+    <t>Virus Buffer</t>
+  </si>
+  <si>
+    <t>d19k</t>
+  </si>
+  <si>
+    <t>d19k+PD-L1</t>
+  </si>
+  <si>
+    <t>CTLA4</t>
+  </si>
+  <si>
+    <t>CTLA4+PD-L1</t>
+  </si>
+  <si>
+    <t>IL12</t>
+  </si>
+  <si>
+    <t>IL12+PD-L1</t>
+  </si>
+  <si>
+    <t>IL7</t>
+  </si>
+  <si>
+    <t>IL7+PD-L1</t>
+  </si>
+  <si>
+    <t>CD70</t>
+  </si>
+  <si>
+    <t>CD70+PD-L1</t>
+  </si>
+  <si>
+    <t>IL10 Trap</t>
+  </si>
+  <si>
+    <t>IL10 Trap+PD-L1</t>
+  </si>
+  <si>
+    <t>Fig. 6C</t>
+  </si>
+  <si>
+    <t>OX40L+PD-L1</t>
+  </si>
+  <si>
+    <t>CD40L</t>
+  </si>
+  <si>
+    <t>CD40L+PD-L1</t>
+  </si>
+  <si>
+    <t>GM-CSF</t>
+  </si>
+  <si>
+    <t>GM-CSF+PD-L1</t>
+  </si>
+  <si>
+    <t>Fig. 9B</t>
+  </si>
+  <si>
+    <t>TRZ-d19k(Empty virus)</t>
+  </si>
+  <si>
+    <t>TRZ-d19k(Empty virus)+a-PD-L1</t>
+  </si>
+  <si>
+    <t>TRZ-409</t>
+  </si>
+  <si>
+    <t>TRZ-410+a-PD-L1</t>
+  </si>
+  <si>
+    <t>Fig. 9C</t>
+  </si>
+  <si>
+    <t>TRZ-403(IL-7+IL-12)+control lgG</t>
+  </si>
+  <si>
+    <t>TRZ-403(IL-7+IL-12)+alone</t>
+  </si>
+  <si>
+    <t>TRZ-403(IL-7+IL-12)+a-PD-L1</t>
+  </si>
+  <si>
+    <t>TRZ-6403(IL-7+IL-12)</t>
+  </si>
+  <si>
+    <t>TRZ-6403(IL-7+IL-12)+a-PD-L1</t>
+  </si>
+  <si>
+    <t>TRZ-6403(IL-7+IL-12)+Control lgG</t>
+  </si>
+  <si>
+    <t>TRZ-6409(IL-12+IL-7)</t>
+  </si>
+  <si>
+    <t>Untreated</t>
+  </si>
+  <si>
+    <t>TRZ-d19k+a-PD-L1</t>
+  </si>
+  <si>
+    <t>TRZ-d19k+a-PD-1</t>
+  </si>
+  <si>
+    <t>TRZ-d19k+Control lgG</t>
+  </si>
+  <si>
+    <t>Fig. 9F</t>
+  </si>
+  <si>
+    <t>TRZ-d19k(Empty-virus)(EV)</t>
+  </si>
+  <si>
+    <t>TRZ-mlL-7+EV</t>
+  </si>
+  <si>
+    <t>TRZ-mlL-12+EV</t>
+  </si>
+  <si>
+    <t>Mixture of TRZ-mlL-7+TRZ-mlL-12</t>
+  </si>
+  <si>
+    <t>TRZ-6403(E1-mlL-7/E3-mlL-12)+EV</t>
+  </si>
+  <si>
+    <t>US10233226.pdf</t>
+  </si>
+  <si>
+    <t>Fig. 6G</t>
+  </si>
+  <si>
+    <t>CD19.CAR-28z</t>
+  </si>
+  <si>
+    <t>B7-H3.CAR-28z</t>
+  </si>
+  <si>
+    <t>B7-H3.CAR-BBz</t>
+  </si>
+  <si>
+    <t>US10238698.pdf</t>
+  </si>
+  <si>
+    <t>&lt;15 positive antibodies</t>
+  </si>
+  <si>
+    <t>&gt;15 positive antibodies</t>
+  </si>
+  <si>
+    <t>US10238699.pdf</t>
+  </si>
+  <si>
+    <t>RPMI</t>
+  </si>
+  <si>
+    <t>AdWT</t>
+  </si>
+  <si>
+    <t>CRAd-5-pk7</t>
+  </si>
+  <si>
+    <t>Fig. 8B</t>
+  </si>
+  <si>
+    <t>Fig. 33C</t>
+  </si>
+  <si>
+    <t>Fig. 34C</t>
+  </si>
+  <si>
+    <t>HB1.F3 CD</t>
+  </si>
+  <si>
+    <t>CRAd-5-pk7+HB1.F3.CD</t>
+  </si>
+  <si>
+    <t>Fig. 34D</t>
+  </si>
+  <si>
+    <t>Fig. 35C</t>
+  </si>
+  <si>
+    <t>Fig. 39A</t>
+  </si>
+  <si>
+    <t>Fig. 39B</t>
+  </si>
+  <si>
+    <t>Fig. 43A</t>
+  </si>
+  <si>
+    <t>TMZ 5 mg/kg</t>
+  </si>
+  <si>
+    <t>TMZ 10 mg/kg</t>
+  </si>
+  <si>
+    <t>TMZ 30 mg/kg</t>
+  </si>
+  <si>
+    <t>Fig. 43B</t>
+  </si>
+  <si>
+    <t>XRT only</t>
+  </si>
+  <si>
+    <t>XRT+TMZ 2.5 mg/kg</t>
+  </si>
+  <si>
+    <t>XRT+TMZ 5 mg/kg</t>
+  </si>
+  <si>
+    <t>XRT+TMZ 10 mg/kg</t>
+  </si>
+  <si>
+    <t>XRT+TMZ 30 mg/kg</t>
+  </si>
+  <si>
+    <t>Fig. 43C</t>
+  </si>
+  <si>
+    <t>XRT-TMZ</t>
+  </si>
+  <si>
+    <t>5*105 loaded NSCs-TMZ</t>
+  </si>
+  <si>
+    <t>3*106 loaded NSCs-TMZ</t>
+  </si>
+  <si>
+    <t>Fig. 45A</t>
+  </si>
+  <si>
+    <t>XRT-TMZ+5*105 loaded NSCs</t>
+  </si>
+  <si>
+    <t>Fig. 47A</t>
+  </si>
+  <si>
+    <t>TMZ-XRT</t>
+  </si>
+  <si>
+    <t>US10251922.pdf</t>
+  </si>
+  <si>
+    <t>Fig. 5C</t>
+  </si>
+  <si>
+    <t>NDV-WT</t>
+  </si>
+  <si>
+    <t>Fig. 5D</t>
+  </si>
+  <si>
+    <t>Fig. 7C</t>
+  </si>
+  <si>
+    <t>WT+isotype</t>
+  </si>
+  <si>
+    <t>PBS+anti-CTLA-4</t>
+  </si>
+  <si>
+    <t>WT+anti-CTLA-4</t>
+  </si>
+  <si>
+    <t>Fig. 10A</t>
+  </si>
+  <si>
+    <t>anti-PD-1</t>
+  </si>
+  <si>
+    <t>NDV-WT+anti-PD-1</t>
+  </si>
+  <si>
+    <t>Fig. 13B</t>
+  </si>
+  <si>
+    <t>PBS+lg</t>
+  </si>
+  <si>
+    <t>NDV-WT+lg</t>
+  </si>
+  <si>
+    <t>NDV-ICOSL+lg</t>
+  </si>
+  <si>
+    <t>PBS+anti-CTLA4</t>
+  </si>
+  <si>
+    <t>NDV-WT+anti-CTLA4</t>
+  </si>
+  <si>
+    <t>NDV-ICOSL+CTLA4</t>
+  </si>
+  <si>
+    <t>Fig. 14B</t>
+  </si>
+  <si>
+    <t>anti-CTLA4</t>
+  </si>
+  <si>
+    <t>Fig. 18A</t>
+  </si>
+  <si>
+    <t>Fig. 18B</t>
+  </si>
+  <si>
+    <t>US10253095.pdf</t>
+  </si>
+  <si>
+    <t>Anti-Ly49</t>
+  </si>
+  <si>
+    <t>IL-2</t>
+  </si>
+  <si>
+    <t>Anti-Ly49+IL-2</t>
+  </si>
+  <si>
+    <t>US10253331.pdf</t>
+  </si>
+  <si>
+    <t>DOSE COHORT 1</t>
+  </si>
+  <si>
+    <t>DOSE COHORT 2 AND 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +1247,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -644,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -689,6 +1324,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -966,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G288"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7608,6 +8246,6561 @@
         <v>50</v>
       </c>
     </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D289" s="10">
+        <v>1</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F289" s="10">
+        <v>100</v>
+      </c>
+      <c r="G289" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D290" s="10">
+        <v>1</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F290" s="10">
+        <v>100</v>
+      </c>
+      <c r="G290" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D291" s="10">
+        <v>1</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F291" s="10">
+        <v>20</v>
+      </c>
+      <c r="G291" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D292" s="10">
+        <v>1</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F292" s="10">
+        <v>0</v>
+      </c>
+      <c r="G292" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D293" s="10">
+        <v>1</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F293" s="10">
+        <v>100</v>
+      </c>
+      <c r="G293" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D294" s="10">
+        <v>1</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F294" s="10">
+        <v>0</v>
+      </c>
+      <c r="G294" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D295" s="10">
+        <v>1</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F295" s="10">
+        <v>100</v>
+      </c>
+      <c r="G295" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D296" s="10">
+        <v>1</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F296" s="10">
+        <v>0</v>
+      </c>
+      <c r="G296" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D297" s="10">
+        <v>1</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F297" s="10">
+        <v>0</v>
+      </c>
+      <c r="G297" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" s="10">
+        <v>1</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F298" s="10">
+        <v>100</v>
+      </c>
+      <c r="G298" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D299" s="10">
+        <v>1</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F299" s="10">
+        <v>0</v>
+      </c>
+      <c r="G299" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D300" s="10">
+        <v>1</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" s="10">
+        <v>0</v>
+      </c>
+      <c r="G300" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D301" s="10">
+        <v>1</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F301" s="10">
+        <v>70</v>
+      </c>
+      <c r="G301" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D302" s="10">
+        <v>1</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F302" s="10">
+        <v>100</v>
+      </c>
+      <c r="G302" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D303" s="10">
+        <v>1</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F303" s="10">
+        <v>20</v>
+      </c>
+      <c r="G303" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D304" s="10">
+        <v>1</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F304" s="10">
+        <v>90</v>
+      </c>
+      <c r="G304" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D305" s="10">
+        <v>1</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F305" s="10">
+        <v>10</v>
+      </c>
+      <c r="G305" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D306" s="10">
+        <v>1</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F306" s="10">
+        <v>70</v>
+      </c>
+      <c r="G306" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D307" s="10">
+        <v>1</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F307" s="10">
+        <v>30</v>
+      </c>
+      <c r="G307" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D308" s="10">
+        <v>1</v>
+      </c>
+      <c r="E308" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F308" s="10">
+        <v>0</v>
+      </c>
+      <c r="G308" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D309" s="10">
+        <v>1</v>
+      </c>
+      <c r="E309" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F309" s="10">
+        <v>20</v>
+      </c>
+      <c r="G309" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D310" s="10">
+        <v>1</v>
+      </c>
+      <c r="E310" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F310" s="10">
+        <v>0</v>
+      </c>
+      <c r="G310" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D311" s="10">
+        <v>1</v>
+      </c>
+      <c r="E311" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F311" s="10">
+        <v>100</v>
+      </c>
+      <c r="G311" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D312" s="10">
+        <v>1</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F312" s="10">
+        <v>20</v>
+      </c>
+      <c r="G312" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D313" s="10">
+        <v>1</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F313" s="10">
+        <v>0</v>
+      </c>
+      <c r="G313" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D314" s="10">
+        <v>1</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F314" s="10">
+        <v>0</v>
+      </c>
+      <c r="G314" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D315" s="10">
+        <v>1</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F315" s="10">
+        <v>70</v>
+      </c>
+      <c r="G315" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D316" s="10">
+        <v>1</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F316" s="10">
+        <v>0</v>
+      </c>
+      <c r="G316" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D317" s="10">
+        <v>1</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F317" s="10">
+        <v>0</v>
+      </c>
+      <c r="G317" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D318" s="10">
+        <v>1</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F318" s="10">
+        <v>10</v>
+      </c>
+      <c r="G318" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D319" s="10">
+        <v>1</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F319" s="10">
+        <v>100</v>
+      </c>
+      <c r="G319" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D320" s="10">
+        <v>1</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F320" s="10">
+        <v>70</v>
+      </c>
+      <c r="G320" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D321" s="10">
+        <v>1</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F321" s="10">
+        <v>80</v>
+      </c>
+      <c r="G321" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D322" s="10">
+        <v>1</v>
+      </c>
+      <c r="E322" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F322" s="10">
+        <v>100</v>
+      </c>
+      <c r="G322" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D323" s="10">
+        <v>1</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F323" s="10">
+        <v>90</v>
+      </c>
+      <c r="G323" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D324" s="10">
+        <v>1</v>
+      </c>
+      <c r="E324" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F324" s="10">
+        <v>0</v>
+      </c>
+      <c r="G324" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D325" s="10">
+        <v>1</v>
+      </c>
+      <c r="E325" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F325" s="10">
+        <v>0</v>
+      </c>
+      <c r="G325" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" s="10">
+        <v>1</v>
+      </c>
+      <c r="E326" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F326" s="10">
+        <v>100</v>
+      </c>
+      <c r="G326" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" s="10">
+        <v>1</v>
+      </c>
+      <c r="E327" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F327" s="10">
+        <v>90</v>
+      </c>
+      <c r="G327" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="10">
+        <v>1</v>
+      </c>
+      <c r="E328" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F328" s="10">
+        <v>100</v>
+      </c>
+      <c r="G328" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="10">
+        <v>1</v>
+      </c>
+      <c r="E329" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F329" s="10">
+        <v>100</v>
+      </c>
+      <c r="G329" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" s="10">
+        <v>1</v>
+      </c>
+      <c r="E330" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F330" s="10">
+        <v>10</v>
+      </c>
+      <c r="G330" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D331" s="10">
+        <v>1</v>
+      </c>
+      <c r="E331" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F331" s="10">
+        <v>60</v>
+      </c>
+      <c r="G331" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D332" s="10">
+        <v>1</v>
+      </c>
+      <c r="E332" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F332" s="10">
+        <v>100</v>
+      </c>
+      <c r="G332" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D333" s="10">
+        <v>1</v>
+      </c>
+      <c r="E333" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F333" s="10">
+        <v>100</v>
+      </c>
+      <c r="G333" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D334" s="10">
+        <v>1</v>
+      </c>
+      <c r="E334" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F334" s="10">
+        <v>0</v>
+      </c>
+      <c r="G334" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D335" s="10">
+        <v>1</v>
+      </c>
+      <c r="E335" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F335" s="10">
+        <v>100</v>
+      </c>
+      <c r="G335" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D336" s="10">
+        <v>1</v>
+      </c>
+      <c r="E336" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F336" s="10">
+        <v>100</v>
+      </c>
+      <c r="G336" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D337" s="10">
+        <v>1</v>
+      </c>
+      <c r="E337" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F337" s="10">
+        <v>0</v>
+      </c>
+      <c r="G337" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D338" s="10">
+        <v>1</v>
+      </c>
+      <c r="E338" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F338" s="10">
+        <v>70</v>
+      </c>
+      <c r="G338" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D339" s="10">
+        <v>1</v>
+      </c>
+      <c r="E339" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F339" s="10">
+        <v>30</v>
+      </c>
+      <c r="G339" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D340" s="10">
+        <v>1</v>
+      </c>
+      <c r="E340" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F340" s="10">
+        <v>0</v>
+      </c>
+      <c r="G340" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D341" s="10">
+        <v>1</v>
+      </c>
+      <c r="E341" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F341" s="10">
+        <v>20</v>
+      </c>
+      <c r="G341" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D342" s="10">
+        <v>1</v>
+      </c>
+      <c r="E342" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F342" s="10">
+        <v>0</v>
+      </c>
+      <c r="G342" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D343" s="10">
+        <v>1</v>
+      </c>
+      <c r="E343" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F343" s="10">
+        <v>30</v>
+      </c>
+      <c r="G343" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C344" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D344" s="10">
+        <v>1</v>
+      </c>
+      <c r="E344" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F344" s="10">
+        <v>0</v>
+      </c>
+      <c r="G344" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D345" s="10">
+        <v>1</v>
+      </c>
+      <c r="E345" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F345" s="10">
+        <v>50</v>
+      </c>
+      <c r="G345" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C346" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D346" s="10">
+        <v>1</v>
+      </c>
+      <c r="E346" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F346" s="10">
+        <v>0</v>
+      </c>
+      <c r="G346" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D347" s="10">
+        <v>1</v>
+      </c>
+      <c r="E347" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F347" s="10">
+        <v>0</v>
+      </c>
+      <c r="G347" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C348" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D348" s="10">
+        <v>1</v>
+      </c>
+      <c r="E348" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F348" s="10">
+        <v>0</v>
+      </c>
+      <c r="G348" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D349" s="10">
+        <v>1</v>
+      </c>
+      <c r="E349" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F349" s="10">
+        <v>0</v>
+      </c>
+      <c r="G349" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D350" s="10">
+        <v>1</v>
+      </c>
+      <c r="E350" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F350" s="10">
+        <v>20</v>
+      </c>
+      <c r="G350" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D351" s="10">
+        <v>1</v>
+      </c>
+      <c r="E351" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F351" s="10">
+        <v>80</v>
+      </c>
+      <c r="G351" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="10">
+        <v>1</v>
+      </c>
+      <c r="E352" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F352" s="10">
+        <v>0</v>
+      </c>
+      <c r="G352" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="10">
+        <v>1</v>
+      </c>
+      <c r="E353" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F353" s="10">
+        <v>0</v>
+      </c>
+      <c r="G353" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="10">
+        <v>1</v>
+      </c>
+      <c r="E354" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F354" s="10">
+        <v>50</v>
+      </c>
+      <c r="G354" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="10">
+        <v>1</v>
+      </c>
+      <c r="E355" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F355" s="10">
+        <v>100</v>
+      </c>
+      <c r="G355" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="10">
+        <v>1</v>
+      </c>
+      <c r="E356" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F356" s="10">
+        <v>0</v>
+      </c>
+      <c r="G356" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D357" s="10">
+        <v>1</v>
+      </c>
+      <c r="E357" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F357" s="10">
+        <v>0</v>
+      </c>
+      <c r="G357" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D358" s="10">
+        <v>1</v>
+      </c>
+      <c r="E358" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F358" s="10">
+        <v>0</v>
+      </c>
+      <c r="G358" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D359" s="10">
+        <v>1</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F359" s="10">
+        <v>50</v>
+      </c>
+      <c r="G359" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D360" s="10">
+        <v>1</v>
+      </c>
+      <c r="E360" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F360" s="10">
+        <v>100</v>
+      </c>
+      <c r="G360" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D361" s="10">
+        <v>1</v>
+      </c>
+      <c r="E361" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F361" s="10">
+        <v>50</v>
+      </c>
+      <c r="G361" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C362" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D362" s="10">
+        <v>1</v>
+      </c>
+      <c r="E362" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F362" s="10">
+        <v>25</v>
+      </c>
+      <c r="G362" s="10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D363" s="10">
+        <v>0</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F363" s="10">
+        <v>1400</v>
+      </c>
+      <c r="G363" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D364" s="10">
+        <v>0</v>
+      </c>
+      <c r="E364" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F364" s="10">
+        <v>800</v>
+      </c>
+      <c r="G364" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D365" s="10">
+        <v>1</v>
+      </c>
+      <c r="E365" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F365" s="10">
+        <v>100</v>
+      </c>
+      <c r="G365" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D366" s="10">
+        <v>1</v>
+      </c>
+      <c r="E366" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F366" s="10">
+        <v>60</v>
+      </c>
+      <c r="G366" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D367" s="10">
+        <v>1</v>
+      </c>
+      <c r="E367" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F367" s="10">
+        <v>10</v>
+      </c>
+      <c r="G367" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C368" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D368" s="10">
+        <v>1</v>
+      </c>
+      <c r="E368" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F368" s="10">
+        <v>70</v>
+      </c>
+      <c r="G368" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D369" s="10">
+        <v>1</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F369" s="10">
+        <v>25</v>
+      </c>
+      <c r="G369" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D370" s="10">
+        <v>1</v>
+      </c>
+      <c r="E370" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F370" s="10">
+        <v>10</v>
+      </c>
+      <c r="G370" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D371" s="10">
+        <v>0</v>
+      </c>
+      <c r="E371" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F371" s="10">
+        <v>150</v>
+      </c>
+      <c r="G371" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D372" s="10">
+        <v>0</v>
+      </c>
+      <c r="E372" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F372" s="10">
+        <v>130</v>
+      </c>
+      <c r="G372" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D373" s="10">
+        <v>0</v>
+      </c>
+      <c r="E373" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F373" s="10">
+        <v>250</v>
+      </c>
+      <c r="G373" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D374" s="10">
+        <v>0</v>
+      </c>
+      <c r="E374" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F374" s="10">
+        <v>250</v>
+      </c>
+      <c r="G374" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D375" s="10">
+        <v>0</v>
+      </c>
+      <c r="E375" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F375" s="10">
+        <v>8000</v>
+      </c>
+      <c r="G375" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D376" s="10">
+        <v>0</v>
+      </c>
+      <c r="E376" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F376" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G376" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D377" s="10">
+        <v>0</v>
+      </c>
+      <c r="E377" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F377" s="10">
+        <v>9000</v>
+      </c>
+      <c r="G377" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D378" s="10">
+        <v>0</v>
+      </c>
+      <c r="E378" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F378" s="10">
+        <v>100</v>
+      </c>
+      <c r="G378" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D379" s="10">
+        <v>0</v>
+      </c>
+      <c r="E379" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F379" s="10">
+        <v>9000</v>
+      </c>
+      <c r="G379" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D380" s="10">
+        <v>0</v>
+      </c>
+      <c r="E380" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F380" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G380" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D381" s="10">
+        <v>0</v>
+      </c>
+      <c r="E381" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F381" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G381" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C382" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D382" s="10">
+        <v>0</v>
+      </c>
+      <c r="E382" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F382" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G382" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D383" s="10">
+        <v>0</v>
+      </c>
+      <c r="E383" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F383" s="10">
+        <v>1300</v>
+      </c>
+      <c r="G383" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D384" s="10">
+        <v>0</v>
+      </c>
+      <c r="E384" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F384" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G384" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D385" s="10">
+        <v>0</v>
+      </c>
+      <c r="E385" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F385" s="10">
+        <v>1100</v>
+      </c>
+      <c r="G385" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D386" s="10">
+        <v>0</v>
+      </c>
+      <c r="E386" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F386" s="10">
+        <v>1050</v>
+      </c>
+      <c r="G386" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D387" s="10">
+        <v>0</v>
+      </c>
+      <c r="E387" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F387" s="10">
+        <v>800</v>
+      </c>
+      <c r="G387" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D388" s="10">
+        <v>0</v>
+      </c>
+      <c r="E388" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F388" s="10">
+        <v>750</v>
+      </c>
+      <c r="G388" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D389" s="10">
+        <v>0</v>
+      </c>
+      <c r="E389" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F389" s="10">
+        <v>700</v>
+      </c>
+      <c r="G389" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D390" s="10">
+        <v>0</v>
+      </c>
+      <c r="E390" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F390" s="10">
+        <v>700</v>
+      </c>
+      <c r="G390" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D391" s="10">
+        <v>0</v>
+      </c>
+      <c r="E391" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F391" s="10">
+        <v>700</v>
+      </c>
+      <c r="G391" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C392" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D392" s="10">
+        <v>0</v>
+      </c>
+      <c r="E392" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F392" s="10">
+        <v>600</v>
+      </c>
+      <c r="G392" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D393" s="10">
+        <v>0</v>
+      </c>
+      <c r="E393" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F393" s="10">
+        <v>600</v>
+      </c>
+      <c r="G393" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D394" s="10">
+        <v>0</v>
+      </c>
+      <c r="E394" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F394" s="10">
+        <v>500</v>
+      </c>
+      <c r="G394" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D395" s="10">
+        <v>0</v>
+      </c>
+      <c r="E395" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F395" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G395" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D396" s="10">
+        <v>0</v>
+      </c>
+      <c r="E396" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F396" s="10">
+        <v>900</v>
+      </c>
+      <c r="G396" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D397" s="10">
+        <v>0</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F397" s="10">
+        <v>750</v>
+      </c>
+      <c r="G397" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D398" s="10">
+        <v>0</v>
+      </c>
+      <c r="E398" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F398" s="10">
+        <v>700</v>
+      </c>
+      <c r="G398" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D399" s="10">
+        <v>0</v>
+      </c>
+      <c r="E399" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F399" s="10">
+        <v>600</v>
+      </c>
+      <c r="G399" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D400" s="10">
+        <v>0</v>
+      </c>
+      <c r="E400" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F400" s="10">
+        <v>600</v>
+      </c>
+      <c r="G400" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D401" s="10">
+        <v>0</v>
+      </c>
+      <c r="E401" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F401" s="10">
+        <v>550</v>
+      </c>
+      <c r="G401" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D402" s="10">
+        <v>0</v>
+      </c>
+      <c r="E402" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F402" s="10">
+        <v>500</v>
+      </c>
+      <c r="G402" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D403" s="10">
+        <v>0</v>
+      </c>
+      <c r="E403" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F403" s="10">
+        <v>450</v>
+      </c>
+      <c r="G403" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D404" s="10">
+        <v>0</v>
+      </c>
+      <c r="E404" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F404" s="10">
+        <v>400</v>
+      </c>
+      <c r="G404" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D405" s="10">
+        <v>0</v>
+      </c>
+      <c r="E405" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F405" s="10">
+        <v>400</v>
+      </c>
+      <c r="G405" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D406" s="10">
+        <v>0</v>
+      </c>
+      <c r="E406" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F406" s="10">
+        <v>300</v>
+      </c>
+      <c r="G406" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D407" s="10">
+        <v>0</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F407" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G407" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D408" s="10">
+        <v>0</v>
+      </c>
+      <c r="E408" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F408" s="10">
+        <v>750</v>
+      </c>
+      <c r="G408" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D409" s="10">
+        <v>0</v>
+      </c>
+      <c r="E409" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F409" s="10">
+        <v>500</v>
+      </c>
+      <c r="G409" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D410" s="10">
+        <v>0</v>
+      </c>
+      <c r="E410" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F410" s="10">
+        <v>250</v>
+      </c>
+      <c r="G410" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D411" s="10">
+        <v>0</v>
+      </c>
+      <c r="E411" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F411" s="10">
+        <v>1500</v>
+      </c>
+      <c r="G411" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D412" s="10">
+        <v>0</v>
+      </c>
+      <c r="E412" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F412" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G412" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D413" s="10">
+        <v>0</v>
+      </c>
+      <c r="E413" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F413" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G413" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D414" s="10">
+        <v>0</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F414" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G414" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D415" s="10">
+        <v>0</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F415" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G415" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D416" s="10">
+        <v>0</v>
+      </c>
+      <c r="E416" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F416" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G416" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D417" s="10">
+        <v>0</v>
+      </c>
+      <c r="E417" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F417" s="10">
+        <v>750</v>
+      </c>
+      <c r="G417" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D418" s="10">
+        <v>0</v>
+      </c>
+      <c r="E418" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F418" s="10">
+        <v>750</v>
+      </c>
+      <c r="G418" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D419" s="10">
+        <v>0</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F419" s="10">
+        <v>750</v>
+      </c>
+      <c r="G419" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D420" s="10">
+        <v>0</v>
+      </c>
+      <c r="E420" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F420" s="10">
+        <v>750</v>
+      </c>
+      <c r="G420" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D421" s="10">
+        <v>0</v>
+      </c>
+      <c r="E421" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F421" s="10">
+        <v>300</v>
+      </c>
+      <c r="G421" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D422" s="10">
+        <v>0</v>
+      </c>
+      <c r="E422" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F422" s="10">
+        <v>300</v>
+      </c>
+      <c r="G422" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D423" s="10">
+        <v>0</v>
+      </c>
+      <c r="E423" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F423" s="10">
+        <v>1500</v>
+      </c>
+      <c r="G423" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D424" s="10">
+        <v>0</v>
+      </c>
+      <c r="E424" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F424" s="10">
+        <v>900</v>
+      </c>
+      <c r="G424" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D425" s="10">
+        <v>0</v>
+      </c>
+      <c r="E425" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F425" s="10">
+        <v>750</v>
+      </c>
+      <c r="G425" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D426" s="10">
+        <v>0</v>
+      </c>
+      <c r="E426" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F426" s="10">
+        <v>600</v>
+      </c>
+      <c r="G426" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D427" s="10">
+        <v>0</v>
+      </c>
+      <c r="E427" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F427" s="10">
+        <v>600</v>
+      </c>
+      <c r="G427" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D428" s="10">
+        <v>0</v>
+      </c>
+      <c r="E428" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F428" s="10">
+        <v>500</v>
+      </c>
+      <c r="G428" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D429" s="10">
+        <v>0</v>
+      </c>
+      <c r="E429" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F429" s="10">
+        <v>300</v>
+      </c>
+      <c r="G429" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D430" s="10">
+        <v>0</v>
+      </c>
+      <c r="E430" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F430" s="10">
+        <v>300</v>
+      </c>
+      <c r="G430" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D431" s="10">
+        <v>0</v>
+      </c>
+      <c r="E431" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F431" s="10">
+        <v>300</v>
+      </c>
+      <c r="G431" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D432" s="10">
+        <v>0</v>
+      </c>
+      <c r="E432" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F432" s="10">
+        <v>300</v>
+      </c>
+      <c r="G432" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D433" s="10">
+        <v>0</v>
+      </c>
+      <c r="E433" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F433" s="10">
+        <v>250</v>
+      </c>
+      <c r="G433" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D434" s="10">
+        <v>0</v>
+      </c>
+      <c r="E434" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F434" s="10">
+        <v>250</v>
+      </c>
+      <c r="G434" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="B435" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D435" s="10">
+        <v>0</v>
+      </c>
+      <c r="E435" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F435" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G435" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D436" s="10">
+        <v>0</v>
+      </c>
+      <c r="E436" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F436" s="10">
+        <v>300</v>
+      </c>
+      <c r="G436" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D437" s="10">
+        <v>0</v>
+      </c>
+      <c r="E437" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F437" s="10">
+        <v>300</v>
+      </c>
+      <c r="G437" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C438" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D438" s="10">
+        <v>0</v>
+      </c>
+      <c r="E438" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F438" s="10">
+        <v>300</v>
+      </c>
+      <c r="G438" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D439" s="10">
+        <v>1</v>
+      </c>
+      <c r="E439" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F439" s="10">
+        <v>20</v>
+      </c>
+      <c r="G439" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D440" s="10">
+        <v>1</v>
+      </c>
+      <c r="E440" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F440" s="10">
+        <v>80</v>
+      </c>
+      <c r="G440" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="B441" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D441" s="10">
+        <v>0</v>
+      </c>
+      <c r="E441" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F441" s="10">
+        <v>300</v>
+      </c>
+      <c r="G441" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+      <c r="B442" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D442" s="10">
+        <v>0</v>
+      </c>
+      <c r="E442" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F442" s="10">
+        <v>250</v>
+      </c>
+      <c r="G442" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+      <c r="B443" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D443" s="10">
+        <v>0</v>
+      </c>
+      <c r="E443" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F443" s="10">
+        <v>200</v>
+      </c>
+      <c r="G443" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C444" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D444" s="10">
+        <v>0</v>
+      </c>
+      <c r="E444" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F444" s="10">
+        <v>150</v>
+      </c>
+      <c r="G444" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1">
+        <v>444</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D445" s="10">
+        <v>0</v>
+      </c>
+      <c r="E445" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F445" s="10">
+        <v>200</v>
+      </c>
+      <c r="G445" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D446" s="10">
+        <v>0</v>
+      </c>
+      <c r="E446" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F446" s="10">
+        <v>150</v>
+      </c>
+      <c r="G446" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="1">
+        <v>446</v>
+      </c>
+      <c r="B447" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D447" s="10">
+        <v>0</v>
+      </c>
+      <c r="E447" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F447" s="10">
+        <v>10</v>
+      </c>
+      <c r="G447" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+      <c r="B448" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D448" s="10">
+        <v>0</v>
+      </c>
+      <c r="E448" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F448" s="10">
+        <v>0</v>
+      </c>
+      <c r="G448" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="1">
+        <v>448</v>
+      </c>
+      <c r="B449" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D449" s="10">
+        <v>0</v>
+      </c>
+      <c r="E449" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F449" s="10">
+        <v>200</v>
+      </c>
+      <c r="G449" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+      <c r="B450" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D450" s="10">
+        <v>0</v>
+      </c>
+      <c r="E450" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F450" s="10">
+        <v>100</v>
+      </c>
+      <c r="G450" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="1">
+        <v>450</v>
+      </c>
+      <c r="B451" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D451" s="10">
+        <v>0</v>
+      </c>
+      <c r="E451" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F451" s="10">
+        <v>300</v>
+      </c>
+      <c r="G451" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+      <c r="B452" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D452" s="10">
+        <v>0</v>
+      </c>
+      <c r="E452" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F452" s="10">
+        <v>50</v>
+      </c>
+      <c r="G452" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+      <c r="B453" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D453" s="10">
+        <v>0</v>
+      </c>
+      <c r="E453" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F453" s="10">
+        <v>250</v>
+      </c>
+      <c r="G453" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="B454" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D454" s="10">
+        <v>0</v>
+      </c>
+      <c r="E454" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F454" s="10">
+        <v>200</v>
+      </c>
+      <c r="G454" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D455" s="10">
+        <v>0</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F455" s="10">
+        <v>300</v>
+      </c>
+      <c r="G455" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+      <c r="B456" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C456" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D456" s="10">
+        <v>0</v>
+      </c>
+      <c r="E456" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F456" s="10">
+        <v>250</v>
+      </c>
+      <c r="G456" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="1">
+        <v>456</v>
+      </c>
+      <c r="B457" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D457" s="10">
+        <v>0</v>
+      </c>
+      <c r="E457" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F457" s="10">
+        <v>200</v>
+      </c>
+      <c r="G457" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D458" s="10">
+        <v>0</v>
+      </c>
+      <c r="E458" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F458" s="10">
+        <v>150</v>
+      </c>
+      <c r="G458" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1">
+        <v>458</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D459" s="10">
+        <v>0</v>
+      </c>
+      <c r="E459" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F459" s="10">
+        <v>200</v>
+      </c>
+      <c r="G459" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D460" s="10">
+        <v>0</v>
+      </c>
+      <c r="E460" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F460" s="10">
+        <v>250</v>
+      </c>
+      <c r="G460" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1">
+        <v>460</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D461" s="10">
+        <v>0</v>
+      </c>
+      <c r="E461" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F461" s="10">
+        <v>300</v>
+      </c>
+      <c r="G461" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1">
+        <v>461</v>
+      </c>
+      <c r="B462" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D462" s="10">
+        <v>0</v>
+      </c>
+      <c r="E462" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F462" s="10">
+        <v>200</v>
+      </c>
+      <c r="G462" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1">
+        <v>462</v>
+      </c>
+      <c r="B463" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D463" s="10">
+        <v>0</v>
+      </c>
+      <c r="E463" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F463" s="10">
+        <v>250</v>
+      </c>
+      <c r="G463" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D464" s="10">
+        <v>0</v>
+      </c>
+      <c r="E464" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F464" s="10">
+        <v>250</v>
+      </c>
+      <c r="G464" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+      <c r="B465" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D465" s="10">
+        <v>0</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F465" s="10">
+        <v>600</v>
+      </c>
+      <c r="G465" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="B466" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D466" s="10">
+        <v>0</v>
+      </c>
+      <c r="E466" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F466" s="10">
+        <v>650</v>
+      </c>
+      <c r="G466" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="B467" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D467" s="10">
+        <v>0</v>
+      </c>
+      <c r="E467" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F467" s="10">
+        <v>250</v>
+      </c>
+      <c r="G467" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C468" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D468" s="10">
+        <v>0</v>
+      </c>
+      <c r="E468" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F468" s="10">
+        <v>150</v>
+      </c>
+      <c r="G468" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D469" s="10">
+        <v>0</v>
+      </c>
+      <c r="E469" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F469" s="10">
+        <v>450</v>
+      </c>
+      <c r="G469" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+      <c r="B470" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C470" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D470" s="10">
+        <v>0</v>
+      </c>
+      <c r="E470" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F470" s="10">
+        <v>150</v>
+      </c>
+      <c r="G470" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="1">
+        <v>470</v>
+      </c>
+      <c r="B471" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D471" s="10">
+        <v>0</v>
+      </c>
+      <c r="E471" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F471" s="10">
+        <v>130</v>
+      </c>
+      <c r="G471" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C472" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D472" s="10">
+        <v>0</v>
+      </c>
+      <c r="E472" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F472" s="10">
+        <v>120</v>
+      </c>
+      <c r="G472" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="1">
+        <v>472</v>
+      </c>
+      <c r="B473" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D473" s="10">
+        <v>1</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F473" s="10">
+        <v>80</v>
+      </c>
+      <c r="G473" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D474" s="10">
+        <v>1</v>
+      </c>
+      <c r="E474" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F474" s="10">
+        <v>80</v>
+      </c>
+      <c r="G474" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="1">
+        <v>474</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D475" s="10">
+        <v>1</v>
+      </c>
+      <c r="E475" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F475" s="10">
+        <v>0</v>
+      </c>
+      <c r="G475" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C476" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D476" s="10">
+        <v>1</v>
+      </c>
+      <c r="E476" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F476" s="10">
+        <v>50</v>
+      </c>
+      <c r="G476" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="1">
+        <v>476</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D477" s="10">
+        <v>1</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F477" s="10">
+        <v>0</v>
+      </c>
+      <c r="G477" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+      <c r="B478" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D478" s="10">
+        <v>1</v>
+      </c>
+      <c r="E478" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F478" s="10">
+        <v>0</v>
+      </c>
+      <c r="G478" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="1">
+        <v>478</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D479" s="10">
+        <v>1</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F479" s="10">
+        <v>0</v>
+      </c>
+      <c r="G479" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D480" s="10">
+        <v>1</v>
+      </c>
+      <c r="E480" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F480" s="10">
+        <v>0</v>
+      </c>
+      <c r="G480" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="1">
+        <v>480</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D481" s="10">
+        <v>0</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F481" s="10">
+        <v>450</v>
+      </c>
+      <c r="G481" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+      <c r="B482" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D482" s="10">
+        <v>0</v>
+      </c>
+      <c r="E482" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F482" s="10">
+        <v>450</v>
+      </c>
+      <c r="G482" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="1">
+        <v>482</v>
+      </c>
+      <c r="B483" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D483" s="10">
+        <v>0</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F483" s="10">
+        <v>350</v>
+      </c>
+      <c r="G483" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+      <c r="B484" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D484" s="10">
+        <v>0</v>
+      </c>
+      <c r="E484" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F484" s="10">
+        <v>350</v>
+      </c>
+      <c r="G484" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="1">
+        <v>484</v>
+      </c>
+      <c r="B485" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D485" s="10">
+        <v>0</v>
+      </c>
+      <c r="E485" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F485" s="10">
+        <v>100</v>
+      </c>
+      <c r="G485" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+      <c r="B486" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D486" s="10">
+        <v>1</v>
+      </c>
+      <c r="E486" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F486" s="10">
+        <v>0</v>
+      </c>
+      <c r="G486" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="1">
+        <v>486</v>
+      </c>
+      <c r="B487" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D487" s="10">
+        <v>1</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F487" s="10">
+        <v>0</v>
+      </c>
+      <c r="G487" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+      <c r="B488" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D488" s="10">
+        <v>1</v>
+      </c>
+      <c r="E488" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F488" s="10">
+        <v>100</v>
+      </c>
+      <c r="G488" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="1">
+        <v>488</v>
+      </c>
+      <c r="B489" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D489" s="10">
+        <v>1</v>
+      </c>
+      <c r="E489" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F489" s="10">
+        <v>40</v>
+      </c>
+      <c r="G489" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="B490" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D490" s="10">
+        <v>1</v>
+      </c>
+      <c r="E490" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F490" s="10">
+        <v>0</v>
+      </c>
+      <c r="G490" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+      <c r="B491" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D491" s="10">
+        <v>0</v>
+      </c>
+      <c r="E491" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F491" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G491" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D492" s="10">
+        <v>0</v>
+      </c>
+      <c r="E492" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F492" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G492" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="B493" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D493" s="10">
+        <v>0</v>
+      </c>
+      <c r="E493" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F493" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G493" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D494" s="10">
+        <v>1</v>
+      </c>
+      <c r="E494" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F494" s="10">
+        <v>0</v>
+      </c>
+      <c r="G494" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="B495" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D495" s="10">
+        <v>1</v>
+      </c>
+      <c r="E495" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F495" s="10">
+        <v>0</v>
+      </c>
+      <c r="G495" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="B496" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D496" s="10">
+        <v>1</v>
+      </c>
+      <c r="E496" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F496" s="10">
+        <v>60</v>
+      </c>
+      <c r="G496" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+      <c r="B497" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D497" s="10">
+        <v>1</v>
+      </c>
+      <c r="E497" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F497" s="10">
+        <v>0</v>
+      </c>
+      <c r="G497" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="B498" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D498" s="10">
+        <v>1</v>
+      </c>
+      <c r="E498" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F498" s="10">
+        <v>0</v>
+      </c>
+      <c r="G498" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+      <c r="B499" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D499" s="10">
+        <v>1</v>
+      </c>
+      <c r="E499" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F499" s="10">
+        <v>0</v>
+      </c>
+      <c r="G499" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+      <c r="B500" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D500" s="10">
+        <v>1</v>
+      </c>
+      <c r="E500" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F500" s="10">
+        <v>0</v>
+      </c>
+      <c r="G500" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+      <c r="B501" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D501" s="10">
+        <v>1</v>
+      </c>
+      <c r="E501" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F501" s="10">
+        <v>0</v>
+      </c>
+      <c r="G501" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="B502" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D502" s="10">
+        <v>1</v>
+      </c>
+      <c r="E502" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F502" s="10">
+        <v>0</v>
+      </c>
+      <c r="G502" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+      <c r="B503" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D503" s="10">
+        <v>1</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F503" s="10">
+        <v>0</v>
+      </c>
+      <c r="G503" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="B504" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D504" s="10">
+        <v>1</v>
+      </c>
+      <c r="E504" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F504" s="10">
+        <v>0</v>
+      </c>
+      <c r="G504" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+      <c r="B505" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D505" s="10">
+        <v>1</v>
+      </c>
+      <c r="E505" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F505" s="10">
+        <v>0</v>
+      </c>
+      <c r="G505" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="B506" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D506" s="10">
+        <v>1</v>
+      </c>
+      <c r="E506" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F506" s="10">
+        <v>10</v>
+      </c>
+      <c r="G506" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507" s="1">
+        <v>506</v>
+      </c>
+      <c r="B507" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D507" s="10">
+        <v>1</v>
+      </c>
+      <c r="E507" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F507" s="10">
+        <v>20</v>
+      </c>
+      <c r="G507" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="B508" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D508" s="10">
+        <v>1</v>
+      </c>
+      <c r="E508" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F508" s="10">
+        <v>40</v>
+      </c>
+      <c r="G508" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509" s="1">
+        <v>508</v>
+      </c>
+      <c r="B509" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D509" s="10">
+        <v>1</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F509" s="10">
+        <v>80</v>
+      </c>
+      <c r="G509" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="B510" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D510" s="10">
+        <v>1</v>
+      </c>
+      <c r="E510" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F510" s="10">
+        <v>50</v>
+      </c>
+      <c r="G510" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511" s="1">
+        <v>510</v>
+      </c>
+      <c r="B511" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D511" s="10">
+        <v>1</v>
+      </c>
+      <c r="E511" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F511" s="10">
+        <v>0</v>
+      </c>
+      <c r="G511" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D512" s="10">
+        <v>1</v>
+      </c>
+      <c r="E512" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F512" s="10">
+        <v>0</v>
+      </c>
+      <c r="G512" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="B513" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D513" s="10">
+        <v>1</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F513" s="10">
+        <v>0</v>
+      </c>
+      <c r="G513" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D514" s="10">
+        <v>1</v>
+      </c>
+      <c r="E514" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F514" s="10">
+        <v>10</v>
+      </c>
+      <c r="G514" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="B515" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D515" s="10">
+        <v>1</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F515" s="10">
+        <v>0</v>
+      </c>
+      <c r="G515" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="B516" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D516" s="10">
+        <v>1</v>
+      </c>
+      <c r="E516" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F516" s="10">
+        <v>0</v>
+      </c>
+      <c r="G516" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D517" s="10">
+        <v>1</v>
+      </c>
+      <c r="E517" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F517" s="10">
+        <v>0</v>
+      </c>
+      <c r="G517" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D518" s="10">
+        <v>1</v>
+      </c>
+      <c r="E518" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F518" s="10">
+        <v>0</v>
+      </c>
+      <c r="G518" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" s="1">
+        <v>518</v>
+      </c>
+      <c r="B519" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D519" s="10">
+        <v>1</v>
+      </c>
+      <c r="E519" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F519" s="10">
+        <v>0</v>
+      </c>
+      <c r="G519" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="B520" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D520" s="10">
+        <v>1</v>
+      </c>
+      <c r="E520" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F520" s="10">
+        <v>0</v>
+      </c>
+      <c r="G520" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="B521" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D521" s="10">
+        <v>1</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F521" s="10">
+        <v>0</v>
+      </c>
+      <c r="G521" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D522" s="10">
+        <v>1</v>
+      </c>
+      <c r="E522" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F522" s="10">
+        <v>75</v>
+      </c>
+      <c r="G522" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D523" s="10">
+        <v>1</v>
+      </c>
+      <c r="E523" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F523" s="10">
+        <v>0</v>
+      </c>
+      <c r="G523" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D524" s="10">
+        <v>1</v>
+      </c>
+      <c r="E524" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F524" s="10">
+        <v>0</v>
+      </c>
+      <c r="G524" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D525" s="10">
+        <v>1</v>
+      </c>
+      <c r="E525" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F525" s="10">
+        <v>0</v>
+      </c>
+      <c r="G525" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C526" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D526" s="10">
+        <v>1</v>
+      </c>
+      <c r="E526" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F526" s="10">
+        <v>0</v>
+      </c>
+      <c r="G526" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D527" s="10">
+        <v>1</v>
+      </c>
+      <c r="E527" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F527" s="10">
+        <v>75</v>
+      </c>
+      <c r="G527" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D528" s="10">
+        <v>1</v>
+      </c>
+      <c r="E528" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F528" s="10">
+        <v>100</v>
+      </c>
+      <c r="G528" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D529" s="10">
+        <v>1</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F529" s="10">
+        <v>0</v>
+      </c>
+      <c r="G529" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D530" s="10">
+        <v>1</v>
+      </c>
+      <c r="E530" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F530" s="10">
+        <v>0</v>
+      </c>
+      <c r="G530" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D531" s="10">
+        <v>1</v>
+      </c>
+      <c r="E531" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F531" s="10">
+        <v>0</v>
+      </c>
+      <c r="G531" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D532" s="10">
+        <v>1</v>
+      </c>
+      <c r="E532" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F532" s="10">
+        <v>0</v>
+      </c>
+      <c r="G532" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D533" s="10">
+        <v>1</v>
+      </c>
+      <c r="E533" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F533" s="10">
+        <v>0</v>
+      </c>
+      <c r="G533" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C534" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D534" s="10">
+        <v>1</v>
+      </c>
+      <c r="E534" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F534" s="10">
+        <v>35</v>
+      </c>
+      <c r="G534" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D535" s="10">
+        <v>1</v>
+      </c>
+      <c r="E535" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F535" s="10">
+        <v>10</v>
+      </c>
+      <c r="G535" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D536" s="10">
+        <v>1</v>
+      </c>
+      <c r="E536" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F536" s="10">
+        <v>100</v>
+      </c>
+      <c r="G536" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="B537" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D537" s="10">
+        <v>1</v>
+      </c>
+      <c r="E537" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F537" s="10">
+        <v>100</v>
+      </c>
+      <c r="G537" s="10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D538" s="10">
+        <v>1</v>
+      </c>
+      <c r="E538" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F538" s="10">
+        <v>100</v>
+      </c>
+      <c r="G538" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="B539" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D539" s="10">
+        <v>1</v>
+      </c>
+      <c r="E539" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F539" s="10">
+        <v>0</v>
+      </c>
+      <c r="G539" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C540" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D540" s="10">
+        <v>1</v>
+      </c>
+      <c r="E540" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F540" s="10">
+        <v>10</v>
+      </c>
+      <c r="G540" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D541" s="10">
+        <v>1</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F541" s="10">
+        <v>0</v>
+      </c>
+      <c r="G541" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C542" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D542" s="10">
+        <v>1</v>
+      </c>
+      <c r="E542" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F542" s="10">
+        <v>30</v>
+      </c>
+      <c r="G542" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="B543" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D543" s="10">
+        <v>1</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F543" s="10">
+        <v>0</v>
+      </c>
+      <c r="G543" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D544" s="10">
+        <v>1</v>
+      </c>
+      <c r="E544" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F544" s="10">
+        <v>0</v>
+      </c>
+      <c r="G544" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="B545" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D545" s="10">
+        <v>1</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F545" s="10">
+        <v>20</v>
+      </c>
+      <c r="G545" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="B546" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C546" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D546" s="10">
+        <v>1</v>
+      </c>
+      <c r="E546" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F546" s="10">
+        <v>70</v>
+      </c>
+      <c r="G546" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D547" s="10">
+        <v>1</v>
+      </c>
+      <c r="E547" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F547" s="10">
+        <v>0</v>
+      </c>
+      <c r="G547" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D548" s="10">
+        <v>1</v>
+      </c>
+      <c r="E548" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F548" s="10">
+        <v>10</v>
+      </c>
+      <c r="G548" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="B549" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D549" s="10">
+        <v>1</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F549" s="10">
+        <v>70</v>
+      </c>
+      <c r="G549" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D550" s="10">
+        <v>1</v>
+      </c>
+      <c r="E550" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F550" s="10">
+        <v>0</v>
+      </c>
+      <c r="G550" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="B551" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D551" s="10">
+        <v>1</v>
+      </c>
+      <c r="E551" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F551" s="10">
+        <v>10</v>
+      </c>
+      <c r="G551" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D552" s="10">
+        <v>1</v>
+      </c>
+      <c r="E552" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F552" s="10">
+        <v>0</v>
+      </c>
+      <c r="G552" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D553" s="10">
+        <v>1</v>
+      </c>
+      <c r="E553" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F553" s="10">
+        <v>10</v>
+      </c>
+      <c r="G553" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D554" s="10">
+        <v>1</v>
+      </c>
+      <c r="E554" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F554" s="10">
+        <v>30</v>
+      </c>
+      <c r="G554" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="B555" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D555" s="10">
+        <v>1</v>
+      </c>
+      <c r="E555" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F555" s="10">
+        <v>70</v>
+      </c>
+      <c r="G555" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C556" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D556" s="10">
+        <v>1</v>
+      </c>
+      <c r="E556" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F556" s="10">
+        <v>0</v>
+      </c>
+      <c r="G556" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D557" s="10">
+        <v>1</v>
+      </c>
+      <c r="E557" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F557" s="10">
+        <v>20</v>
+      </c>
+      <c r="G557" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C558" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D558" s="10">
+        <v>1</v>
+      </c>
+      <c r="E558" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F558" s="10">
+        <v>60</v>
+      </c>
+      <c r="G558" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="B559" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D559" s="10">
+        <v>1</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F559" s="10">
+        <v>90</v>
+      </c>
+      <c r="G559" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D560" s="10">
+        <v>1</v>
+      </c>
+      <c r="E560" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F560" s="10">
+        <v>0</v>
+      </c>
+      <c r="G560" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="B561" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D561" s="10">
+        <v>1</v>
+      </c>
+      <c r="E561" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F561" s="10">
+        <v>30</v>
+      </c>
+      <c r="G561" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D562" s="10">
+        <v>1</v>
+      </c>
+      <c r="E562" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F562" s="10">
+        <v>80</v>
+      </c>
+      <c r="G562" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="B563" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D563" s="10">
+        <v>1</v>
+      </c>
+      <c r="E563" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F563" s="10">
+        <v>80</v>
+      </c>
+      <c r="G563" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C564" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D564" s="10">
+        <v>1</v>
+      </c>
+      <c r="E564" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F564" s="10">
+        <v>0</v>
+      </c>
+      <c r="G564" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="B565" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D565" s="10">
+        <v>1</v>
+      </c>
+      <c r="E565" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F565" s="10">
+        <v>100</v>
+      </c>
+      <c r="G565" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C566" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D566" s="10">
+        <v>1</v>
+      </c>
+      <c r="E566" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F566" s="10">
+        <v>100</v>
+      </c>
+      <c r="G566" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="B567" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D567" s="10">
+        <v>1</v>
+      </c>
+      <c r="E567" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F567" s="10">
+        <v>100</v>
+      </c>
+      <c r="G567" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C568" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D568" s="10">
+        <v>0</v>
+      </c>
+      <c r="E568" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F568" s="12">
+        <v>700</v>
+      </c>
+      <c r="G568" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="B569" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D569" s="10">
+        <v>0</v>
+      </c>
+      <c r="E569" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F569" s="12">
+        <v>700</v>
+      </c>
+      <c r="G569" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C570" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D570" s="10">
+        <v>0</v>
+      </c>
+      <c r="E570" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F570" s="12">
+        <v>450</v>
+      </c>
+      <c r="G570" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="B571" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D571" s="10">
+        <v>0</v>
+      </c>
+      <c r="E571" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F571" s="12">
+        <v>250</v>
+      </c>
+      <c r="G571" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C572" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D572" s="12">
+        <v>1</v>
+      </c>
+      <c r="E572" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F572" s="12">
+        <v>30</v>
+      </c>
+      <c r="G572" s="12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="B573" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C573" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D573" s="12">
+        <v>1</v>
+      </c>
+      <c r="E573" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F573" s="12">
+        <v>50</v>
+      </c>
+      <c r="G573" s="12">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
